--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelDataReaderRenderTest/TestRenderDataReader.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelDataReaderRenderTest/TestRenderDataReader.xlsx
@@ -379,13 +379,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F4"/>
+  <x:dimension ref="A1:I4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:9">
       <x:c r="B2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -395,8 +395,17 @@
       <x:c r="D2" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="G2" s="0">
+        <x:f>ROW()</x:f>
+      </x:c>
+      <x:c r="H2" s="0">
+        <x:f>SUM(B2,F2)</x:f>
+      </x:c>
+      <x:c r="I2" s="0">
+        <x:f>SUM(B$4,F$4)</x:f>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:9">
       <x:c r="B3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -412,8 +421,17 @@
       <x:c r="F3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="G3" s="0">
+        <x:f>ROW()</x:f>
+      </x:c>
+      <x:c r="H3" s="0">
+        <x:f>SUM(B3,F3)</x:f>
+      </x:c>
+      <x:c r="I3" s="0">
+        <x:f>SUM(B$4,F$4)</x:f>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:9">
       <x:c r="B4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
@@ -422,6 +440,15 @@
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>4</x:v>
+      </x:c>
+      <x:c r="G4" s="0">
+        <x:f>ROW()</x:f>
+      </x:c>
+      <x:c r="H4" s="0">
+        <x:f>SUM(B4,F4)</x:f>
+      </x:c>
+      <x:c r="I4" s="0">
+        <x:f>SUM(B$4,F$4)</x:f>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelDataReaderRenderTest/TestRenderDataReader.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelDataReaderRenderTest/TestRenderDataReader.xlsx
@@ -402,7 +402,7 @@
         <x:f>SUM(B2,F2)</x:f>
       </x:c>
       <x:c r="I2" s="0">
-        <x:f>SUM(B$4,F$4)</x:f>
+        <x:f>SUM(B$2,F$2)</x:f>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -428,7 +428,7 @@
         <x:f>SUM(B3,F3)</x:f>
       </x:c>
       <x:c r="I3" s="0">
-        <x:f>SUM(B$4,F$4)</x:f>
+        <x:f>SUM(B$2,F$2)</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -448,7 +448,7 @@
         <x:f>SUM(B4,F4)</x:f>
       </x:c>
       <x:c r="I4" s="0">
-        <x:f>SUM(B$4,F$4)</x:f>
+        <x:f>SUM(B$2,F$2)</x:f>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelDataReaderRenderTest/TestRenderDataReader.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelDataReaderRenderTest/TestRenderDataReader.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Customer 1</x:t>
   </x:si>
@@ -386,7 +386,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="2" spans="1:9">
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
@@ -406,7 +406,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
@@ -418,7 +418,7 @@
       <x:c r="E3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="n">
+      <x:c r="F3" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="0">
@@ -432,7 +432,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
